--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,10 +865,26 @@
       <c r="J14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006000</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Behaviour change intervention mechanism of action (BCI mechanism of action)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A process that is causally active in the relationship between a BCI and its outcome behaviour. </t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Process/Process </t>
+        </is>
+      </c>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr"/>
@@ -883,22 +899,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006000</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action (BCI mechanism of action)</t>
+          <t>Behaviour change intervention mode of delivery (BCI mode of delivery)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is causally active in the relationship between a BCI and its outcome behaviour. </t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Process/Process </t>
+          <t>Process attribute/Process</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -915,25 +931,29 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:025000</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mode of delivery (BCI mode of delivery)</t>
+          <t>Behaviour change intervention outcome estimate (BCI outcome estimate)</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Process attribute/Process</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
+          <t>Behaviour change intervention evaluation finding/Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr">
@@ -947,29 +967,25 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:025000</t>
+          <t>BCIO:026000</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention outcome estimate (BCI outcome estimate)</t>
+          <t>Behaviour change intervention physical setting (BCI physical setting)</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+          <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation finding/Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
-        </is>
-      </c>
+          <t>Environmental system (ENVO)/Continuant</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
@@ -983,22 +999,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention physical setting (BCI physical setting)</t>
+          <t>Behaviour change intervention population (BCI population)</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A physical environment in which a BCI is delivered.</t>
+          <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Environmental system (ENVO)/Continuant</t>
+          <t xml:space="preserve">Human population/Object aggregate </t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1015,22 +1031,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention population (BCI population)</t>
+          <t>Behaviour change intervention scenario report (BCI scenario report)</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
+          <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Human population/Object aggregate </t>
+          <t>Report (IAO)/Generically dependent continuant</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1047,22 +1063,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention scenario report (BCI scenario report)</t>
+          <t>Behaviour change intervention scenario (BCI scenario)</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Report (IAO)/Generically dependent continuant</t>
+          <t>Planned process (OBI)/Process</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1079,22 +1095,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
+          <t>BCIO:028000</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention scenario (BCI scenario)</t>
+          <t>Behaviour change intervention scenario plan (BCI scenario plan)</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
+          <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Planned process (OBI)/Process</t>
+          <t>Plan (OBI)/Generically dependent continuant</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1111,27 +1127,35 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t>BCIO:009000</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention scenario plan (BCI scenario plan)</t>
+          <t xml:space="preserve">Behaviour change intervention schedule of delivery (BCI schedule of delivery) </t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a BCI scenario process.</t>
+          <t>An attribute of a BCI that involves its temporal organisation.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Plan (OBI)/Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Process attribute/Process</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Includes the start and end of the BCI and its parts.</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
@@ -1143,35 +1167,31 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:009000</t>
+          <t>BCIO:014000</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention schedule of delivery (BCI schedule of delivery) </t>
+          <t>Behaviour change intervention setting (BCI setting)</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI that involves its temporal organisation.</t>
+          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Process attribute/Process</t>
+          <t>Object aggregate/Object aggregate</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
+          <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
@@ -1183,29 +1203,25 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:014000</t>
+          <t>BCIO:029000</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention setting (BCI setting)</t>
+          <t>Behaviour change intervention social setting (BCI social setting)</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+          <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Object aggregate/Object aggregate</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
+          <t>Human population/Continuant</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr">
@@ -1219,25 +1235,29 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:029000</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention social setting (BCI social setting)</t>
+          <t>Behaviour change intervention source (BCI source)</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people with whom a BCI population interacts.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Human population/Continuant</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
+          <t xml:space="preserve">Role/Role </t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>This includes individual people, groups of people, and organisations.</t>
+        </is>
+      </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr">
@@ -1251,27 +1271,27 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
+          <t>BCIO:030000</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention source (BCI source)</t>
+          <t>Behaviour change intervention study investigator (BCI study investigator)</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role/Role </t>
+          <t>Role/Role</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>This includes individual people, groups of people, and organisations.</t>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
@@ -1287,29 +1307,25 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:030000</t>
+          <t>BCIO:031000</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention study investigator (BCI study investigator)</t>
+          <t>Behaviour change intervention study sample (BCI study sample)</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Role/Role</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
-        </is>
-      </c>
+          <t>Human population/Object aggregate</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="inlineStr">
@@ -1323,25 +1339,29 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:031000</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention study sample (BCI study sample)</t>
+          <t>Behaviour change intervention style of delivery (BCI style of delivery)</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
+          <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Human population/Object aggregate</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Process attribute/Process</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>An example is cold and distant vs. warm and accepting.</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="inlineStr">
@@ -1355,27 +1375,27 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:032000</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention style of delivery (BCI style of delivery)</t>
+          <t>Behaviour change intervention tailoring (BCI tailoring)</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
+          <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Process attribute/Process</t>
+          <t xml:space="preserve">Process attribute/Process </t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
+          <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
@@ -1391,29 +1411,25 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:032000</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention tailoring (BCI tailoring)</t>
+          <t>Behaviour change technique (BCT)</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Process attribute/Process </t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Planned process (OBI)/Process </t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr">
@@ -1427,22 +1443,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change technique (BCT)</t>
+          <t>Outcome behaviour</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned process (OBI)/Process </t>
+          <t xml:space="preserve">Human behaviour/Process </t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -1459,22 +1475,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Outcome behaviour</t>
+          <t>Population behaviour</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Human behaviour/Process </t>
+          <t>Process/Process</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1491,25 +1507,29 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:035000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Population behaviour</t>
+          <t>Evaluation finding</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Process/Process</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t xml:space="preserve">Data item (IAO)/Continuant </t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr">
@@ -1523,29 +1543,25 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:035000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Evaluation finding</t>
+          <t>Individual human behaviour</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data item (IAO)/Continuant </t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Individual human activity/Process </t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr">
@@ -1559,25 +1575,29 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity/Process </t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
+          <t xml:space="preserve">Planned process (OBI)/Process </t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr">
@@ -1591,29 +1611,25 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Intervention evaluation study</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Planned process (OBI)/Process </t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Research study (SEPIO)/Process </t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr">
@@ -1627,25 +1643,29 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Intervention evaluation study</t>
+          <t>Intervention outcome</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research study (SEPIO)/Process </t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
+          <t>Process/Process</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr">
@@ -1659,17 +1679,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Intervention outcome</t>
+          <t>Individual human activity</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -1677,11 +1697,7 @@
           <t>Process/Process</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+      <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr">
@@ -1695,22 +1711,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity</t>
+          <t>Human population</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>An aggregate of people</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Process/Process</t>
+          <t>Object aggregate/Object aggregate</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -1727,22 +1743,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Human population</t>
+          <t>Human behaviour</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people</t>
+          <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Object aggregate/Object aggregate</t>
+          <t>Process/Process</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -1759,22 +1775,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour</t>
+          <t>Process attribute</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour</t>
+          <t>An attribute of a process</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Process/Process</t>
+          <t>Process profile/Process profile</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -1788,38 +1804,6 @@
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:043000</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Process attribute</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>Process profile/Process profile</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -511,11 +511,15 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
+          <t>Consists of BCTs that can be classified using a BCT taxonomy.</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t xml:space="preserve">An intervention that has the aim of influencing human behaviour. </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -443,7 +443,11 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -443,11 +443,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
@@ -519,11 +515,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intervention/Process </t>
+          <t>Intervention/Process</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,6 +64,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,7 +487,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t xml:space="preserve">BCIO:003000 </t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -443,7 +511,11 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCIO:003000 </t>
+          <t>BCIO:016000fdf</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -497,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention that has the aim of influencing human behaviour. </t>
+          <t>A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. fff</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -1876,6 +1882,38 @@
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
     </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:043000asdf</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>An attribute of a processffff</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,13 +511,21 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="J2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -547,13 +555,21 @@
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
@@ -583,13 +599,21 @@
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
